--- a/data/trans_dic/CoPsoQ_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R2-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5630840148770018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.388452517794263</v>
+        <v>0.3884525177942632</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.5735695699404819</v>
@@ -664,7 +664,7 @@
         <v>0.5668409041015176</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3740833361476351</v>
+        <v>0.374083336147635</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5692736909293842</v>
+        <v>0.5641375059952335</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4986994981987351</v>
+        <v>0.5051783495662566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2774617382892911</v>
+        <v>0.2842691587881507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5030549143302727</v>
+        <v>0.5077621981077416</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5045637948490906</v>
+        <v>0.5050965650603022</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2691100118827357</v>
+        <v>0.2700604594136497</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5603704958089616</v>
+        <v>0.558973072581916</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5143351414537591</v>
+        <v>0.5179129996671541</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.295743970726261</v>
+        <v>0.3025511608435149</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6834077414694024</v>
+        <v>0.6834757645866084</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6270998407763586</v>
+        <v>0.6286865096904908</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5100889526452902</v>
+        <v>0.5191009160378228</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6490825806783467</v>
+        <v>0.6419865388029075</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6449212278204867</v>
+        <v>0.6378845502051734</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4516632477246108</v>
+        <v>0.4562656545811667</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6519403505727487</v>
+        <v>0.6497100271337237</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6097708520225199</v>
+        <v>0.6089833816470391</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4552595076359206</v>
+        <v>0.450482261312077</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5809557765743751</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3706841713023288</v>
+        <v>0.3706841713023289</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.4970318973737257</v>
@@ -764,7 +764,7 @@
         <v>0.5572891144874783</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.4031811773741916</v>
+        <v>0.4031811773741915</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.6096315291059117</v>
@@ -773,7 +773,7 @@
         <v>0.5706018625738792</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.3862855646548673</v>
+        <v>0.3862855646548674</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6135274988067596</v>
+        <v>0.6177545385329053</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5163142059222268</v>
+        <v>0.5223396896878911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2490741745826307</v>
+        <v>0.2462144924374075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4101345007043152</v>
+        <v>0.4133289385670992</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4812799399244683</v>
+        <v>0.4853885243717708</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2997440201340786</v>
+        <v>0.2950488998318552</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.559157075798866</v>
+        <v>0.5560001995700434</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.524114569087718</v>
+        <v>0.5190357821624338</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3049784859535116</v>
+        <v>0.3073527552917577</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7410196187904667</v>
+        <v>0.7467435377474635</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.646135425817478</v>
+        <v>0.6463570132831582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4964486403359639</v>
+        <v>0.5048430138694769</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5746534808783081</v>
+        <v>0.5782560839092226</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6255268976528442</v>
+        <v>0.6288830420156529</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5168753358831862</v>
+        <v>0.5099725823680613</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6620750911653052</v>
+        <v>0.6573901184115957</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6176981434592236</v>
+        <v>0.6168836758471242</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4690288754492441</v>
+        <v>0.478862124912289</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4910717495443416</v>
+        <v>0.4878671469123724</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5330299286218035</v>
+        <v>0.5291443330351772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3044309661090869</v>
+        <v>0.3077381694139864</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.480474539947416</v>
+        <v>0.4761626205388398</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3482442169420439</v>
+        <v>0.3543888742699997</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4342912974249389</v>
+        <v>0.4319288425049367</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5074479243983777</v>
+        <v>0.5100752248786324</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5108406675925794</v>
+        <v>0.5065288866516838</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3737787161037736</v>
+        <v>0.3843975516986223</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6126216366581883</v>
+        <v>0.6073626970741505</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6645684345529411</v>
+        <v>0.6722447415277987</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5841598905812692</v>
+        <v>0.5975396985403651</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6734527111719021</v>
+        <v>0.6706158097595255</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5898644727548029</v>
+        <v>0.6014400688033201</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7747765336060638</v>
+        <v>0.7806906346593667</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6092005533091041</v>
+        <v>0.6127844466870257</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.631878385691213</v>
+        <v>0.6274542830132843</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6012875862950825</v>
+        <v>0.6105501763285998</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.6209487066217813</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.5443199334216098</v>
+        <v>0.5443199334216099</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.548424245195844</v>
@@ -991,7 +991,7 @@
         <v>0.5778808095433728</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.4667348430920639</v>
+        <v>0.466734843092064</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4762025448680177</v>
+        <v>0.4735647234532881</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5016565963440899</v>
+        <v>0.4997435156692225</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3023672905495568</v>
+        <v>0.3046283208584247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5190174785211954</v>
+        <v>0.5207960556133827</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5685381682080234</v>
+        <v>0.5728050001985504</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4640223512683126</v>
+        <v>0.4571250964613501</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5089006208838149</v>
+        <v>0.5069418346686472</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5407471675308451</v>
+        <v>0.5404317515429669</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3969181109985838</v>
+        <v>0.4047535194807691</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5826249366653397</v>
+        <v>0.5743048572086175</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5925559041999249</v>
+        <v>0.5940318927436918</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4958784803161115</v>
+        <v>0.5034723974576348</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6385544200048594</v>
+        <v>0.6394109977943717</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6698114603383059</v>
+        <v>0.6716771239792264</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6249527310278999</v>
+        <v>0.6272431880877088</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5862892298935953</v>
+        <v>0.5844947884701408</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6108046166635461</v>
+        <v>0.6098234568873779</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5234084643970133</v>
+        <v>0.5331759702138335</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.4437272993106205</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.40977453056412</v>
+        <v>0.4097745305641201</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.4718271380814597</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4448298348633781</v>
+        <v>0.4473170188396378</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3759864680756421</v>
+        <v>0.3631964596873026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2909697118276498</v>
+        <v>0.286713010493951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3912842478579878</v>
+        <v>0.3943827928332794</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3587397748895927</v>
+        <v>0.3555613497138462</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3772453837245799</v>
+        <v>0.3819759802486136</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4437849507048231</v>
+        <v>0.4397312112307227</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3785341405228584</v>
+        <v>0.3780165848154938</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3655525390287676</v>
+        <v>0.3568342283794332</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6111084987768727</v>
+        <v>0.6225447185410532</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5125473136011446</v>
+        <v>0.5172317753936035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5485462088495385</v>
+        <v>0.5428158629858886</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5507555552652534</v>
+        <v>0.5452793844266821</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4954951704575996</v>
+        <v>0.4943294608551363</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5672906918656653</v>
+        <v>0.5693813705442762</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5558525504369282</v>
+        <v>0.5554177721003504</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4879373548586679</v>
+        <v>0.4839921546597433</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5240761532764667</v>
+        <v>0.5227304538044943</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.5521225854072881</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.4680098715969239</v>
+        <v>0.4680098715969237</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.5670204211383862</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.350018509242834</v>
+        <v>0.3502080495676911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5192613202925537</v>
+        <v>0.5228493024429979</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4233993488824917</v>
+        <v>0.4207960435658382</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5288383436522964</v>
+        <v>0.5302956706061165</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.393443495479832</v>
+        <v>0.393359946822677</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4552353598814346</v>
+        <v>0.4570665158599631</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5822839487273128</v>
+        <v>0.5853264370964006</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5154366783637603</v>
+        <v>0.5148444170648494</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5712158295252824</v>
+        <v>0.5709398576857776</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4661107485527036</v>
+        <v>0.4688748952939101</v>
       </c>
     </row>
     <row r="22">
@@ -1509,31 +1509,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>170705</v>
+        <v>169165</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>137667</v>
+        <v>139456</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27304</v>
+        <v>27974</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>94684</v>
+        <v>95570</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>108064</v>
+        <v>108179</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22775</v>
+        <v>22855</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>273507</v>
+        <v>272825</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>252141</v>
+        <v>253895</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>54131</v>
+        <v>55377</v>
       </c>
     </row>
     <row r="7">
@@ -1544,31 +1544,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>204929</v>
+        <v>204950</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>173113</v>
+        <v>173551</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>50195</v>
+        <v>51082</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>122170</v>
+        <v>120834</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>138125</v>
+        <v>136618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>38224</v>
+        <v>38614</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>318201</v>
+        <v>317112</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>298926</v>
+        <v>298540</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>83328</v>
+        <v>82454</v>
       </c>
     </row>
     <row r="8">
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>155476</v>
+        <v>156548</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>125587</v>
+        <v>127052</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18029</v>
+        <v>17822</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67649</v>
+        <v>68176</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>91047</v>
+        <v>91824</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20035</v>
+        <v>19721</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>233927</v>
+        <v>232607</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>226634</v>
+        <v>224438</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>42462</v>
+        <v>42792</v>
       </c>
     </row>
     <row r="11">
@@ -1688,31 +1688,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>187785</v>
+        <v>189235</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>157164</v>
+        <v>157218</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35936</v>
+        <v>36544</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>94785</v>
+        <v>95379</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>118335</v>
+        <v>118970</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>34548</v>
+        <v>34087</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>276984</v>
+        <v>275024</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>267101</v>
+        <v>266749</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>65302</v>
+        <v>66671</v>
       </c>
     </row>
     <row r="12">
@@ -1797,31 +1797,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>134445</v>
+        <v>133567</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>115308</v>
+        <v>114467</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21103</v>
+        <v>21332</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51163</v>
+        <v>50704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22677</v>
+        <v>23077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12130</v>
+        <v>12064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>192964</v>
+        <v>193963</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>143773</v>
+        <v>142559</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>36350</v>
+        <v>37382</v>
       </c>
     </row>
     <row r="15">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>167722</v>
+        <v>166283</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>143763</v>
+        <v>145423</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40493</v>
+        <v>41420</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>71713</v>
+        <v>71411</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38411</v>
+        <v>39165</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21640</v>
+        <v>21805</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>231657</v>
+        <v>233020</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>177838</v>
+        <v>176593</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>58475</v>
+        <v>59375</v>
       </c>
     </row>
     <row r="16">
@@ -1941,31 +1941,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>196641</v>
+        <v>195552</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>244658</v>
+        <v>243725</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40459</v>
+        <v>40762</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>152999</v>
+        <v>153523</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>207483</v>
+        <v>209041</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>52401</v>
+        <v>51622</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>360160</v>
+        <v>358773</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>461064</v>
+        <v>460795</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>97934</v>
+        <v>99867</v>
       </c>
     </row>
     <row r="19">
@@ -1976,31 +1976,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>240587</v>
+        <v>237151</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>288990</v>
+        <v>289710</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>66353</v>
+        <v>67369</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>188236</v>
+        <v>188489</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>244442</v>
+        <v>245123</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>70574</v>
+        <v>70833</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>414929</v>
+        <v>413659</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>520798</v>
+        <v>519961</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>129143</v>
+        <v>131553</v>
       </c>
     </row>
     <row r="20">
@@ -2085,31 +2085,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>66648</v>
+        <v>67021</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>72574</v>
+        <v>70105</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26884</v>
+        <v>26491</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>67111</v>
+        <v>67642</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>70894</v>
+        <v>70266</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>32385</v>
+        <v>32791</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>142607</v>
+        <v>141304</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>147871</v>
+        <v>147668</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>65157</v>
+        <v>63603</v>
       </c>
     </row>
     <row r="23">
@@ -2120,31 +2120,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>91561</v>
+        <v>93275</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>98933</v>
+        <v>99837</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50683</v>
+        <v>50153</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>94462</v>
+        <v>93523</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>97919</v>
+        <v>97689</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>48700</v>
+        <v>48880</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>178619</v>
+        <v>178479</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>190608</v>
+        <v>189067</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>93412</v>
+        <v>93173</v>
       </c>
     </row>
     <row r="24">
@@ -2229,31 +2229,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>163217</v>
+        <v>163306</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>535373</v>
+        <v>539073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>160120</v>
+        <v>159135</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1294260</v>
+        <v>1297827</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>332258</v>
+        <v>332188</v>
       </c>
     </row>
     <row r="27">
@@ -2264,31 +2264,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>212281</v>
+        <v>213135</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>600352</v>
+        <v>603489</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>194926</v>
+        <v>194702</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1397974</v>
+        <v>1397298</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>393625</v>
+        <v>395959</v>
       </c>
     </row>
     <row r="28">
